--- a/assest/All State Participant and Sponsor Totals 2016-2022 copy.xlsx
+++ b/assest/All State Participant and Sponsor Totals 2016-2022 copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/workspace/Au-pairs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/workspace/Au-pairs/assest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE4E7E2-91ED-F748-901C-1F9EE4CC50A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735522E6-7FBB-5E4E-B5A6-C862D3A11502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="500" windowWidth="25600" windowHeight="17500" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="17500" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="2021" sheetId="5" r:id="rId6"/>
     <sheet name="2022" sheetId="6" r:id="rId7"/>
     <sheet name="2016-2022" sheetId="8" r:id="rId8"/>
+    <sheet name="J1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="60">
   <si>
     <t>State</t>
   </si>
@@ -205,6 +207,21 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Visa Sponsors</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1091,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,12 +1679,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C18F0E-3DA3-6D4F-A5DF-8ACF5C270ABD}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <v>19233</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>20353</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>20678</v>
+      </c>
+      <c r="C4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>21551</v>
+      </c>
+      <c r="C5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>7107</v>
+      </c>
+      <c r="C6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>16454</v>
+      </c>
+      <c r="C7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>21449</v>
+      </c>
+      <c r="C8">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+      <selection activeCell="C52" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FA68EF-E931-404C-A7C1-28220D5F9A36}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B52" sqref="B2:B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2847,7 +2970,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3436,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BE43BE-6C13-6340-9C8A-173DAFE97C62}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4015,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7CBAAB-71B7-FD4D-82F7-317FF917F295}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4606,7 +4729,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5193,10 +5316,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC781451-654C-AF48-9D0F-BA7E97643DEB}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6712,6 +6835,1440 @@
         <v>5</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B2:B52)</f>
+        <v>19233</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="0">SUM(C2:C52)</f>
+        <v>20353</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>20678</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>21551</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>7107</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>16454</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>21449</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>21419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA0A71-2FA9-3847-9FF9-BD62DC183F3F}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <f>SUM(B2:B52)</f>
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:H53" si="0">SUM(C2:C52)</f>
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>419</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
